--- a/data/nutrition.xlsx
+++ b/data/nutrition.xlsx
@@ -389,13 +389,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>id</v>
+      </c>
+      <c r="B1" t="str">
+        <v>date</v>
+      </c>
+      <c r="C1" t="str">
+        <v>name</v>
+      </c>
+      <c r="D1" t="str">
+        <v>calories</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/nutrition.xlsx
+++ b/data/nutrition.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -408,9 +408,23 @@
         <v>calories</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>213_8290</v>
+      </c>
+      <c r="B2" t="str">
+        <v>2022/01/23 13:41:26</v>
+      </c>
+      <c r="C2" t="str">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/nutrition.xlsx
+++ b/data/nutrition.xlsx
@@ -5,6 +5,7 @@
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
     <sheet name="nutrition" sheetId="2" r:id="rId2"/>
+    <sheet name="reports" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -410,16 +411,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>213_8290</v>
+        <v>706_3481</v>
       </c>
       <c r="B2" t="str">
-        <v>2022/01/23 13:41:26</v>
+        <v>2022/01/23 14:47:41</v>
       </c>
       <c r="C2" t="str">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -427,4 +428,40 @@
     <ignoredError numberStoredAsText="1" sqref="A1:D2"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>id</v>
+      </c>
+      <c r="B1" t="str">
+        <v>date</v>
+      </c>
+      <c r="C1" t="str">
+        <v>sources</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>248_5688</v>
+      </c>
+      <c r="B2" t="str">
+        <v>2022/01/23 14:47:59</v>
+      </c>
+      <c r="C2" t="str">
+        <v>32_888332_888332_888332_888332_888332_888332_8883</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/data/nutrition.xlsx
+++ b/data/nutrition.xlsx
@@ -432,7 +432,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -456,12 +456,67 @@
         <v>2022/01/23 14:47:59</v>
       </c>
       <c r="C2" t="str">
-        <v>32_888332_888332_888332_888332_888332_888332_8883</v>
+        <v>32_888332_888332_888332_888332_888332_888332_8883706_3481706_3481706_3481706_3481706_3481706_3481706_3481706_3481706_3481, 706_3481, 706_3481, 706_3481, 706_3481, 706_3481</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>175_4290</v>
+      </c>
+      <c r="B3" t="str">
+        <v>2022/01/23 14:50:47</v>
+      </c>
+      <c r="C3" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>428_6710</v>
+      </c>
+      <c r="B4" t="str">
+        <v>2022/01/23 14:50:53</v>
+      </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>354_65</v>
+      </c>
+      <c r="B5" t="str">
+        <v>2022/01/23 14:50:54</v>
+      </c>
+      <c r="C5" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>226_2172</v>
+      </c>
+      <c r="B6" t="str">
+        <v>2022/01/23 14:51:07</v>
+      </c>
+      <c r="C6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>713_4987</v>
+      </c>
+      <c r="B7" t="str">
+        <v>2022/01/23 14:55:22</v>
+      </c>
+      <c r="C7" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C7"/>
   </ignoredErrors>
 </worksheet>
 </file>